--- a/list/stress.xlsx
+++ b/list/stress.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25005" windowHeight="11550"/>
+    <workbookView windowWidth="25005" windowHeight="10830"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -182,10 +182,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="m&quot;／&quot;d&quot;／&quot;yyyy"/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="m&quot;／&quot;d&quot;／&quot;yyyy"/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="30">
@@ -282,9 +282,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -298,24 +304,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -330,14 +321,37 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -351,11 +365,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -368,7 +389,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -377,27 +398,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -448,19 +448,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -472,43 +484,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -520,7 +496,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -538,7 +514,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -556,13 +544,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -574,13 +562,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -592,25 +610,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -702,11 +702,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -735,6 +741,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -755,21 +770,6 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -807,139 +807,139 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="31" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="34" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="29" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -948,7 +948,7 @@
     <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1395,9 +1395,9 @@
   <dimension ref="A1:XFD25"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D27" sqref="D27"/>
+      <selection pane="bottomLeft" activeCell="D17" sqref="D17:D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.78333333333333" defaultRowHeight="22" customHeight="1"/>
